--- a/Assignment2-Emilie/Assignment2.xlsx
+++ b/Assignment2-Emilie/Assignment2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Intro\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstuser\Assignment3\Assignment2-Emilie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBA356-3BF1-4F2C-9736-64584044C013}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -287,6 +286,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -323,7 +323,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9887463977955565E-2"/>
+          <c:x val="8.9887439206215378E-2"/>
           <c:y val="9.3671084929574835E-2"/>
           <c:w val="0.86770129356798986"/>
           <c:h val="0.76431813180956698"/>
@@ -951,6 +951,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1565,13 +1566,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1599,16 +1600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1623,7 +1624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887201" y="5305425"/>
+          <a:off x="11172826" y="6286500"/>
           <a:ext cx="4610100" cy="1990725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1708,13 +1709,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D12"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Jobs" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Salary (Entry-Level)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Degree Required" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Demands" dataDxfId="0"/>
+    <tableColumn id="1" name="Jobs" dataDxfId="3"/>
+    <tableColumn id="2" name="Average Salary (Entry-Level)" dataDxfId="2"/>
+    <tableColumn id="3" name="Degree Required" dataDxfId="1"/>
+    <tableColumn id="4" name="Demands" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1983,11 +1984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,6 +1997,9 @@
     <col min="2" max="2" width="35.875" customWidth="1"/>
     <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
